--- a/activity/CountyLimit/VeredaLimite.xlsx
+++ b/activity/CountyLimit/VeredaLimite.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\CountyLimit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26670C-8223-47F1-9FCB-DC57AC86C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Areas" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +25,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Mapa veredal diagnóstico POT año 2010</t>
+  </si>
+  <si>
+    <t>Cod. DANE</t>
+  </si>
+  <si>
+    <t>2589900000002</t>
+  </si>
+  <si>
+    <t>2589900000003</t>
+  </si>
+  <si>
+    <t>2589900000004</t>
+  </si>
+  <si>
+    <t>2589900000005</t>
+  </si>
+  <si>
+    <t>2589900000006</t>
+  </si>
+  <si>
+    <t>2589900000007</t>
+  </si>
+  <si>
+    <t>2589900000008</t>
+  </si>
+  <si>
+    <t>2589900000009</t>
+  </si>
+  <si>
+    <t>2589900000010</t>
+  </si>
+  <si>
+    <t>2589900000011</t>
+  </si>
+  <si>
+    <t>2589900000012</t>
+  </si>
+  <si>
+    <t>2589900000013</t>
+  </si>
+  <si>
+    <t>2589900000014</t>
+  </si>
+  <si>
+    <t>2589900000015</t>
+  </si>
+  <si>
+    <t>Vereda</t>
+  </si>
+  <si>
+    <t>Apha</t>
+  </si>
+  <si>
+    <t>Agha</t>
+  </si>
+  <si>
+    <t>PPm</t>
+  </si>
+  <si>
+    <t>PGm</t>
+  </si>
+  <si>
+    <t>Nodos</t>
+  </si>
+  <si>
+    <t>Vereda Centro</t>
+  </si>
+  <si>
+    <t>Vereda Portachuelo</t>
+  </si>
+  <si>
+    <t>Vereda Paso Ancho</t>
+  </si>
+  <si>
+    <t>Vereda El Tunal</t>
+  </si>
+  <si>
+    <t>Vereda La Granja</t>
+  </si>
+  <si>
+    <t>Vereda El Cedro</t>
+  </si>
+  <si>
+    <t>Vereda Pantano Redondo</t>
+  </si>
+  <si>
+    <t>Vereda Páramo de Guerrero</t>
+  </si>
+  <si>
+    <t>Vereda El Empalizado</t>
+  </si>
+  <si>
+    <t>Vereda San Isidro</t>
+  </si>
+  <si>
+    <t>Vereda Rio Frío</t>
+  </si>
+  <si>
+    <t>Vereda Barro Blanco</t>
+  </si>
+  <si>
+    <t>Vereda San Jorge</t>
+  </si>
+  <si>
+    <t>Vereda Barandillas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +181,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +472,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.9296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>257.71255400000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>258.04473300000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11372.557870000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11379.882441</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1107.569911</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1109.009155</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19965.436063000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>19978.411588999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>598.21888000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>599.00347099999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14427.628777</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14437.095597</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1070.574871</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1072.0044969999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16812.352039000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16823.568347</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>746.31942700000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>747.30208700000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17066.676318000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>17077.901127000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>603.16344900000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>603.94195500000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17536.611195000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>17547.93721</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2333.428566</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2336.4074430000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>31777.276657999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31797.584338000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3427.0674119999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3431.423194</v>
+      </c>
+      <c r="F11" s="2">
+        <v>30139.713218000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30158.859305999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1721.9935829999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1724.1463450000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>33356.647205000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>33377.504881000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1567.1982399999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1569.173931</v>
+      </c>
+      <c r="F13" s="2">
+        <v>25823.929088000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>25840.217353</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1064.9117140000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1066.2448280000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15697.266030000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15707.099144</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1617.3363099999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1619.39267</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22903.899970999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>22918.44472</v>
+      </c>
+      <c r="H15" s="2">
+        <v>11309</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1195.8371999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1197.3667829999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>18889.149260999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18901.214333</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1391.5594900000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1393.4024010000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21891.931159</v>
+      </c>
+      <c r="G17" s="2">
+        <v>21906.411367000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E68C659-77DA-4066-B4B0-D8DC732CEAF7}">
+  <dimension ref="D1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/activity/CountyLimit/VeredaLimite.xlsx
+++ b/activity/CountyLimit/VeredaLimite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\CountyLimit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26670C-8223-47F1-9FCB-DC57AC86C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B3DD33-9615-4E5B-8989-0DC3946025F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/activity/CountyLimit/VeredaLimite.xlsx
+++ b/activity/CountyLimit/VeredaLimite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\CountyLimit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B3DD33-9615-4E5B-8989-0DC3946025F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A3F143-BE60-49F3-BA87-44D3C955A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/activity/CountyLimit/VeredaLimite.xlsx
+++ b/activity/CountyLimit/VeredaLimite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\CountyLimit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A3F143-BE60-49F3-BA87-44D3C955A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA13A6-96DA-497D-AFF6-5D2AFD2BA7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Mapa veredal diagnóstico POT año 2010</t>
   </si>
@@ -79,12 +90,6 @@
     <t>Vereda</t>
   </si>
   <si>
-    <t>Apha</t>
-  </si>
-  <si>
-    <t>Agha</t>
-  </si>
-  <si>
     <t>PPm</t>
   </si>
   <si>
@@ -134,6 +139,63 @@
   </si>
   <si>
     <t>Vereda Barandillas</t>
+  </si>
+  <si>
+    <t>APha</t>
+  </si>
+  <si>
+    <t>AGha</t>
+  </si>
+  <si>
+    <t>257.551785</t>
+  </si>
+  <si>
+    <t>1100.172029</t>
+  </si>
+  <si>
+    <t>575.172013</t>
+  </si>
+  <si>
+    <t>1071.795984</t>
+  </si>
+  <si>
+    <t>715.588684</t>
+  </si>
+  <si>
+    <t>603.540097</t>
+  </si>
+  <si>
+    <t>2329.286341</t>
+  </si>
+  <si>
+    <t>3407.242615</t>
+  </si>
+  <si>
+    <t>1718.747435</t>
+  </si>
+  <si>
+    <t>1561.404284</t>
+  </si>
+  <si>
+    <t>1064.242681</t>
+  </si>
+  <si>
+    <t>1617.04191</t>
+  </si>
+  <si>
+    <t>1196.605022</t>
+  </si>
+  <si>
+    <t>1393.402388</t>
+  </si>
+  <si>
+    <t>Predios</t>
+  </si>
+  <si>
+    <t>Mapa veredal a partir de predios POT año 2010</t>
+  </si>
+  <si>
+    <t>Espacio público rural geodésico</t>
   </si>
 </sst>
 </file>
@@ -161,15 +223,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -177,21 +245,286 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,370 +806,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.53125" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.9296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.06640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="2"/>
+    <col min="4" max="8" width="9.1328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.53125" style="2" customWidth="1"/>
+    <col min="11" max="14" width="9.33203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="2:16" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="D4" s="14">
+        <v>257.71255400000001</v>
+      </c>
+      <c r="E4" s="15">
+        <v>258.04473300000001</v>
+      </c>
+      <c r="F4" s="15">
+        <v>11372.557870000001</v>
+      </c>
+      <c r="G4" s="15">
+        <v>11379.882441</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2187</v>
+      </c>
+      <c r="I4" s="22">
+        <f>E4-L4</f>
+        <v>0.4929480000000126</v>
+      </c>
+      <c r="J4" s="3">
+        <v>144</v>
+      </c>
+      <c r="K4" s="15">
+        <v>257.22023899999999</v>
+      </c>
+      <c r="L4" s="15">
+        <v>257.551785</v>
+      </c>
+      <c r="M4" s="15">
+        <v>12463.048572</v>
+      </c>
+      <c r="N4" s="15">
+        <v>12471.074247</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2313</v>
+      </c>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="14">
+        <v>1107.569911</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1109.009155</v>
+      </c>
+      <c r="F5" s="15">
+        <v>19965.436063000001</v>
+      </c>
+      <c r="G5" s="15">
+        <v>19978.411588999999</v>
+      </c>
+      <c r="H5" s="15">
+        <v>3885</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I17" si="0">E5-L5</f>
+        <v>8.8371259999998983</v>
+      </c>
+      <c r="J5" s="3">
+        <v>370</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1098.7442370000001</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1100.1720290000001</v>
+      </c>
+      <c r="M5" s="15">
+        <v>28736.608674999999</v>
+      </c>
+      <c r="N5" s="15">
+        <v>28755.266013</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4385</v>
+      </c>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
-        <v>257.71255400000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>258.04473300000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11372.557870000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>11379.882441</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="14">
+        <v>598.21888000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>599.00347099999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>14427.628777</v>
+      </c>
+      <c r="G6" s="15">
+        <v>14437.095597</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2710</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>23.831457999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K6" s="15">
+        <v>574.41859199999999</v>
+      </c>
+      <c r="L6" s="15">
+        <v>575.17201299999999</v>
+      </c>
+      <c r="M6" s="15">
+        <v>45891.591097999997</v>
+      </c>
+      <c r="N6" s="15">
+        <v>45921.674371000001</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5641</v>
+      </c>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2">
-        <v>1107.569911</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1109.009155</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19965.436063000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>19978.411588999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="14">
+        <v>1070.574871</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1072.0044969999999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>16812.352039000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>16823.568347</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3405</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.20851299999981165</v>
+      </c>
+      <c r="J7" s="3">
+        <v>192</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1070.366634</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1071.7959840000001</v>
+      </c>
+      <c r="M7" s="15">
+        <v>16952.046869000002</v>
+      </c>
+      <c r="N7" s="15">
+        <v>16963.356451</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3433</v>
+      </c>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2">
-        <v>598.21888000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>599.00347099999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14427.628777</v>
-      </c>
-      <c r="G6" s="2">
-        <v>14437.095597</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="14">
+        <v>746.31942700000002</v>
+      </c>
+      <c r="E8" s="15">
+        <v>747.30208700000003</v>
+      </c>
+      <c r="F8" s="15">
+        <v>17066.676318000002</v>
+      </c>
+      <c r="G8" s="15">
+        <v>17077.901127000001</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1860</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="0"/>
+        <v>31.713403000000085</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1959</v>
+      </c>
+      <c r="K8" s="15">
+        <v>714.647693</v>
+      </c>
+      <c r="L8" s="15">
+        <v>715.58868399999994</v>
+      </c>
+      <c r="M8" s="15">
+        <v>55180.488596000003</v>
+      </c>
+      <c r="N8" s="15">
+        <v>55216.800437999998</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4267</v>
+      </c>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2">
-        <v>1070.574871</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1072.0044969999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>16812.352039000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>16823.568347</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="14">
+        <v>603.16344900000001</v>
+      </c>
+      <c r="E9" s="15">
+        <v>603.94195500000001</v>
+      </c>
+      <c r="F9" s="15">
+        <v>17536.611195000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>17547.93721</v>
+      </c>
+      <c r="H9" s="15">
+        <v>3848</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.40185800000006111</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1047</v>
+      </c>
+      <c r="K9" s="15">
+        <v>602.762111</v>
+      </c>
+      <c r="L9" s="15">
+        <v>603.54009699999995</v>
+      </c>
+      <c r="M9" s="15">
+        <v>18340.562414</v>
+      </c>
+      <c r="N9" s="15">
+        <v>18352.409689</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3918</v>
+      </c>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2">
-        <v>746.31942700000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>747.30208700000003</v>
-      </c>
-      <c r="F8" s="2">
-        <v>17066.676318000002</v>
-      </c>
-      <c r="G8" s="2">
-        <v>17077.901127000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="14">
+        <v>2333.428566</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2336.4074430000001</v>
+      </c>
+      <c r="F10" s="15">
+        <v>31777.276657999999</v>
+      </c>
+      <c r="G10" s="15">
+        <v>31797.584338000001</v>
+      </c>
+      <c r="H10" s="15">
+        <v>3361</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="0"/>
+        <v>7.1211020000000644</v>
+      </c>
+      <c r="J10" s="3">
+        <v>165</v>
+      </c>
+      <c r="K10" s="15">
+        <v>2326.3164459999998</v>
+      </c>
+      <c r="L10" s="15">
+        <v>2329.286341</v>
+      </c>
+      <c r="M10" s="15">
+        <v>31942.143803999999</v>
+      </c>
+      <c r="N10" s="15">
+        <v>31962.555853999998</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3381</v>
+      </c>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2">
-        <v>603.16344900000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>603.94195500000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>17536.611195000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>17547.93721</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3848</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="14">
+        <v>3427.0674119999999</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3431.423194</v>
+      </c>
+      <c r="F11" s="15">
+        <v>30139.713218000001</v>
+      </c>
+      <c r="G11" s="15">
+        <v>30158.859305999998</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1408</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="0"/>
+        <v>24.180578999999852</v>
+      </c>
+      <c r="J11" s="3">
+        <v>355</v>
+      </c>
+      <c r="K11" s="15">
+        <v>3402.9172899999999</v>
+      </c>
+      <c r="L11" s="15">
+        <v>3407.2426150000001</v>
+      </c>
+      <c r="M11" s="15">
+        <v>52937.951256</v>
+      </c>
+      <c r="N11" s="15">
+        <v>52971.509874000003</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2256</v>
+      </c>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2">
-        <v>2333.428566</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2336.4074430000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>31777.276657999999</v>
-      </c>
-      <c r="G10" s="2">
-        <v>31797.584338000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="14">
+        <v>1721.9935829999999</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1724.1463450000001</v>
+      </c>
+      <c r="F12" s="15">
+        <v>33356.647205000001</v>
+      </c>
+      <c r="G12" s="15">
+        <v>33377.504881000001</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2870</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="0"/>
+        <v>5.3989100000001145</v>
+      </c>
+      <c r="J12" s="3">
+        <v>144</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1716.6014230000001</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1718.747435</v>
+      </c>
+      <c r="M12" s="15">
+        <v>44448.436241000003</v>
+      </c>
+      <c r="N12" s="15">
+        <v>44476.232454999998</v>
+      </c>
+      <c r="O12" s="4">
+        <v>3460</v>
+      </c>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
-        <v>3427.0674119999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3431.423194</v>
-      </c>
-      <c r="F11" s="2">
-        <v>30139.713218000001</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30158.859305999998</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="14">
+        <v>1567.1982399999999</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1569.173931</v>
+      </c>
+      <c r="F13" s="15">
+        <v>25823.929088000001</v>
+      </c>
+      <c r="G13" s="15">
+        <v>25840.217353</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3558</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="0"/>
+        <v>7.7696470000000772</v>
+      </c>
+      <c r="J13" s="3">
+        <v>487</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1559.4383620000001</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1561.404284</v>
+      </c>
+      <c r="M13" s="15">
+        <v>39897.807936999998</v>
+      </c>
+      <c r="N13" s="15">
+        <v>39922.952506000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>4197</v>
+      </c>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2">
-        <v>1721.9935829999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1724.1463450000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>33356.647205000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>33377.504881000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D14" s="14">
+        <v>1064.9117140000001</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1066.2448280000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15697.266030000001</v>
+      </c>
+      <c r="G14" s="15">
+        <v>15707.099144</v>
+      </c>
+      <c r="H14" s="15">
+        <v>4734</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="0"/>
+        <v>2.00214700000015</v>
+      </c>
+      <c r="J14" s="3">
+        <v>363</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1062.9120680000001</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1064.2426809999999</v>
+      </c>
+      <c r="M14" s="15">
+        <v>19269.345862999999</v>
+      </c>
+      <c r="N14" s="15">
+        <v>19281.408703000001</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4873</v>
+      </c>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2">
-        <v>1567.1982399999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1569.173931</v>
-      </c>
-      <c r="F13" s="2">
-        <v>25823.929088000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>25840.217353</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D15" s="14">
+        <v>1617.3363099999999</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1619.39267</v>
+      </c>
+      <c r="F15" s="15">
+        <v>22903.899970999999</v>
+      </c>
+      <c r="G15" s="15">
+        <v>22918.44472</v>
+      </c>
+      <c r="H15" s="15">
+        <v>11309</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3507600000000366</v>
+      </c>
+      <c r="J15" s="3">
+        <v>674</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1614.9885569999999</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1617.0419099999999</v>
+      </c>
+      <c r="M15" s="15">
+        <v>25397.881858000001</v>
+      </c>
+      <c r="N15" s="15">
+        <v>25414.020981000001</v>
+      </c>
+      <c r="O15" s="4">
+        <v>11433</v>
+      </c>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2">
-        <v>1064.9117140000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1066.2448280000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>15697.266030000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>15707.099144</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="14">
+        <v>1195.8371999999999</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1197.3667829999999</v>
+      </c>
+      <c r="F16" s="15">
+        <v>18889.149260999999</v>
+      </c>
+      <c r="G16" s="15">
+        <v>18901.214333</v>
+      </c>
+      <c r="H16" s="15">
+        <v>5081</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76176099999997859</v>
+      </c>
+      <c r="J16" s="3">
+        <v>841</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1195.0764180000001</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1196.605022</v>
+      </c>
+      <c r="M16" s="15">
+        <v>19527.34966</v>
+      </c>
+      <c r="N16" s="15">
+        <v>19539.824304999998</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5124</v>
+      </c>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2">
-        <v>1617.3363099999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1619.39267</v>
-      </c>
-      <c r="F15" s="2">
-        <v>22903.899970999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>22918.44472</v>
-      </c>
-      <c r="H15" s="2">
-        <v>11309</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1195.8371999999999</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1197.3667829999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>18889.149260999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>18901.214333</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5081</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="D17" s="16">
         <v>1391.5594900000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="17">
         <v>1393.4024010000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="17">
         <v>21891.931159</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="17">
         <v>21906.411367000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="17">
         <v>5094</v>
       </c>
+      <c r="I17" s="22">
+        <f t="shared" si="0"/>
+        <v>1.3000000080864993E-5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>38</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1391.559477</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1393.402388</v>
+      </c>
+      <c r="M17" s="17">
+        <v>21939.812840999999</v>
+      </c>
+      <c r="N17" s="17">
+        <v>21954.324700000001</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5102</v>
+      </c>
+      <c r="P17" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,11 +1537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E68C659-77DA-4066-B4B0-D8DC732CEAF7}">
-  <dimension ref="D1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.73046875" bestFit="1" customWidth="1"/>
@@ -861,7 +1555,330 @@
     <col min="8" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.73046875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>2589900000002</v>
+      </c>
+      <c r="B1">
+        <v>144</v>
+      </c>
+      <c r="C1">
+        <v>257.22023899999999</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1">
+        <v>12463.048572</v>
+      </c>
+      <c r="F1">
+        <v>12471.074247</v>
+      </c>
+      <c r="G1">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2589900000003</v>
+      </c>
+      <c r="B2">
+        <v>370</v>
+      </c>
+      <c r="C2">
+        <v>1098.7442370000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>28736.608674999999</v>
+      </c>
+      <c r="F2">
+        <v>28755.266013</v>
+      </c>
+      <c r="G2">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2589900000004</v>
+      </c>
+      <c r="B3">
+        <v>2775</v>
+      </c>
+      <c r="C3">
+        <v>574.41859199999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>45891.591097999997</v>
+      </c>
+      <c r="F3">
+        <v>45921.674371000001</v>
+      </c>
+      <c r="G3">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2589900000005</v>
+      </c>
+      <c r="B4">
+        <v>192</v>
+      </c>
+      <c r="C4">
+        <v>1070.366634</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>16952.046869000002</v>
+      </c>
+      <c r="F4">
+        <v>16963.356451</v>
+      </c>
+      <c r="G4">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2589900000006</v>
+      </c>
+      <c r="B5">
+        <v>1959</v>
+      </c>
+      <c r="C5">
+        <v>714.647693</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>55180.488596000003</v>
+      </c>
+      <c r="F5">
+        <v>55216.800437999998</v>
+      </c>
+      <c r="G5">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2589900000007</v>
+      </c>
+      <c r="B6">
+        <v>1047</v>
+      </c>
+      <c r="C6">
+        <v>602.762111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>18340.562414</v>
+      </c>
+      <c r="F6">
+        <v>18352.409689</v>
+      </c>
+      <c r="G6">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2589900000008</v>
+      </c>
+      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>2326.3164459999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>31942.143803999999</v>
+      </c>
+      <c r="F7">
+        <v>31962.555853999998</v>
+      </c>
+      <c r="G7">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2589900000009</v>
+      </c>
+      <c r="B8">
+        <v>355</v>
+      </c>
+      <c r="C8">
+        <v>3402.9172899999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>52937.951256</v>
+      </c>
+      <c r="F8">
+        <v>52971.509874000003</v>
+      </c>
+      <c r="G8">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2589900000010</v>
+      </c>
+      <c r="B9">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>1716.6014230000001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>44448.436241000003</v>
+      </c>
+      <c r="F9">
+        <v>44476.232454999998</v>
+      </c>
+      <c r="G9">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2589900000011</v>
+      </c>
+      <c r="B10">
+        <v>487</v>
+      </c>
+      <c r="C10">
+        <v>1559.4383620000001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>39897.807936999998</v>
+      </c>
+      <c r="F10">
+        <v>39922.952506000001</v>
+      </c>
+      <c r="G10">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2589900000012</v>
+      </c>
+      <c r="B11">
+        <v>363</v>
+      </c>
+      <c r="C11">
+        <v>1062.9120680000001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>19269.345862999999</v>
+      </c>
+      <c r="F11">
+        <v>19281.408703000001</v>
+      </c>
+      <c r="G11">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2589900000013</v>
+      </c>
+      <c r="B12">
+        <v>674</v>
+      </c>
+      <c r="C12">
+        <v>1614.9885569999999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>25397.881858000001</v>
+      </c>
+      <c r="F12">
+        <v>25414.020981000001</v>
+      </c>
+      <c r="G12">
+        <v>11433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2589900000014</v>
+      </c>
+      <c r="B13">
+        <v>841</v>
+      </c>
+      <c r="C13">
+        <v>1195.0764180000001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>19527.34966</v>
+      </c>
+      <c r="F13">
+        <v>19539.824304999998</v>
+      </c>
+      <c r="G13">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2589900000015</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>1391.559477</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>21939.812840999999</v>
+      </c>
+      <c r="F14">
+        <v>21954.324700000001</v>
+      </c>
+      <c r="G14">
+        <v>5102</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/activity/CountyLimit/VeredaLimite.xlsx
+++ b/activity/CountyLimit/VeredaLimite.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\CountyLimit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BAC3CE-6532-4F08-B0A3-E69A85F8151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C337AED4-EDAC-4AAC-BE9E-850663463A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1312" windowWidth="21885" windowHeight="10876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Areas" sheetId="1" r:id="rId1"/>
+    <sheet name="VeredaAreas" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Areas!$B$4:$U$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VeredaAreas!$B$4:$U$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
   <si>
     <t>Mapa veredal diagnóstico POT año 2010</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Vereda</t>
-  </si>
-  <si>
-    <t>Apha</t>
   </si>
   <si>
     <t>PPm</t>
@@ -259,9 +256,6 @@
     <t>Cambió de código</t>
   </si>
   <si>
-    <t>Cambió de código y actualización en nombre</t>
-  </si>
-  <si>
     <t>Espacio público rural</t>
   </si>
   <si>
@@ -272,6 +266,9 @@
   </si>
   <si>
     <t>Análisis veredal a partir de información base utilizada en el diagnóstico y elaboración del POT 2010 vs. DANE 2020</t>
+  </si>
+  <si>
+    <t>Cambió de código y actualización nombre</t>
   </si>
 </sst>
 </file>
@@ -606,112 +603,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,1512 +999,1573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AE18"/>
+  <dimension ref="B2:AF18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.9296875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.46484375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.53125" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="1"/>
-    <col min="16" max="20" width="9.1328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.06640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="39.53125" style="1" customWidth="1"/>
-    <col min="25" max="29" width="9.1328125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1328125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.06640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="3" customWidth="1"/>
+    <col min="4" max="7" width="9.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.46484375" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.53125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="9.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="9.1328125" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.06640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="29" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.1328125" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.1328125" style="3" customWidth="1"/>
+    <col min="28" max="30" width="9.1328125" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="10.265625" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>76</v>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="9"/>
+    </row>
+    <row r="4" spans="2:32" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="8" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
+      <c r="X4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="17"/>
     </row>
-    <row r="4" spans="2:31" s="18" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="33"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="21" t="s">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD4" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="27"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="D5" s="20">
         <v>3427.0674119999999</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="21">
         <v>3431.423194</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="21">
         <v>30139.713218000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="21">
         <v>30158.859305999998</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="21">
         <v>1408</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="22">
         <f>E5-L5</f>
         <v>24.180578999999852</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="23">
         <v>355</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="21">
         <v>3402.9172899999999</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="21">
         <v>3407.2426150000001</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="21">
         <v>52937.951256</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="21">
         <v>52971.509874000003</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="24">
         <v>2256</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="20">
         <v>3427.0674119999999</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="21">
         <v>3431.423194</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="21">
         <v>30139.713218000001</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="21">
         <v>30158.859305999998</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="21">
         <v>1408</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="21">
         <f>E5-Q5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="22" t="str">
+        <f>IF(U5&gt;0,"Aumentó",IF(U5=0,"Igual","Disminuyó"))</f>
+        <v>Igual</v>
+      </c>
+      <c r="W5" s="25">
         <v>25899007</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="X5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>3380.0677580000001</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>3384.3642399999999</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>28844.790943</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>28863.122175</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>1901</v>
+      </c>
+      <c r="AE5" s="21">
+        <f>E5-AA5</f>
+        <v>47.058954000000085</v>
+      </c>
+      <c r="AF5" s="22" t="str">
+        <f>IF(AE5&gt;0,"Aumentó",IF(AE5=0,"Igual","Disminuyó"))</f>
+        <v>Aumentó</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="22">
-        <v>3380.0677580000001</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>3384.3642399999999</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>28844.790943</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>28863.122175</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>1901</v>
-      </c>
-      <c r="AD5" s="14">
-        <f>E5-Z5</f>
-        <v>47.058954000000085</v>
-      </c>
-      <c r="AE5" s="19" t="str">
-        <f>IF(AD5&gt;0,"Aumentó",IF(AD5=0,"Igual","Disminuyó"))</f>
-        <v>Aumentó</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="D6" s="20">
         <v>2333.428566</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="21">
         <v>2336.4074430000001</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="21">
         <v>31777.276657999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="21">
         <v>31797.584338000001</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="21">
         <v>3361</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="22">
         <f>E6-L6</f>
         <v>7.1211020000000644</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="23">
         <v>165</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="21">
         <v>2326.3164459999998</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="21">
         <v>2329.286341</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="21">
         <v>31942.143803999999</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="21">
         <v>31962.555853999998</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="24">
         <v>3381</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="20">
         <v>2333.428566</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="21">
         <v>2336.4074430000001</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="21">
         <v>31777.276656999999</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="21">
         <v>31797.584338000001</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="21">
         <v>3361</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="21">
         <f>E6-Q6</f>
         <v>0</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="22" t="str">
+        <f t="shared" ref="V6:V18" si="0">IF(U6&gt;0,"Aumentó",IF(U6=0,"Igual","Disminuyó"))</f>
+        <v>Igual</v>
+      </c>
+      <c r="W6" s="25">
         <v>25899014</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="X6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>2267.6664070000002</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>2270.5608000000002</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>25598.484103999999</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>25614.829342000001</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>565</v>
+      </c>
+      <c r="AE6" s="21">
+        <f t="shared" ref="AE6:AE18" si="1">E6-AA6</f>
+        <v>65.846642999999858</v>
+      </c>
+      <c r="AF6" s="22" t="str">
+        <f t="shared" ref="AF6:AF18" si="2">IF(AE6&gt;0,"Aumentó",IF(AE6=0,"Igual","Disminuyó"))</f>
+        <v>Aumentó</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>2267.6664070000002</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>2270.5608000000002</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>25598.484103999999</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>25614.829342000001</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>565</v>
-      </c>
-      <c r="AD6" s="14">
-        <f t="shared" ref="AD6:AD18" si="0">E6-Z6</f>
-        <v>65.846642999999858</v>
-      </c>
-      <c r="AE6" s="19" t="str">
-        <f t="shared" ref="AE6:AE18" si="1">IF(AD6&gt;0,"Aumentó",IF(AD6=0,"Igual","Disminuyó"))</f>
-        <v>Aumentó</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="D7" s="20">
         <v>1721.9935829999999</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="21">
         <v>1724.1463450000001</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="21">
         <v>33356.647205000001</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="21">
         <v>33377.504881000001</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="21">
         <v>2870</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="22">
         <f>E7-L7</f>
         <v>5.3989100000001145</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="23">
         <v>144</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="21">
         <v>1716.6014230000001</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="21">
         <v>1718.747435</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="21">
         <v>44448.436241000003</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="21">
         <v>44476.232454999998</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="24">
         <v>3460</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="20">
         <v>1721.9935829999999</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="21">
         <v>1724.1463450000001</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="21">
         <v>33356.647205000001</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="21">
         <v>33377.504881000001</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="21">
         <v>2870</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="21">
         <f>E7-Q7</f>
         <v>0</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W7" s="25">
         <v>25899004</v>
       </c>
-      <c r="W7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="22">
+      <c r="X7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="26">
         <v>1719.7704550000001</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AA7" s="21">
         <v>1721.921028</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AB7" s="21">
         <v>38975.878592000001</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AC7" s="21">
         <v>39000.279891999999</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AD7" s="28">
         <v>1985</v>
       </c>
-      <c r="AD7" s="14">
-        <f t="shared" si="0"/>
+      <c r="AE7" s="21">
+        <f t="shared" si="1"/>
         <v>2.2253170000001319</v>
       </c>
-      <c r="AE7" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF7" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="20">
         <v>1617.3363099999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="21">
         <v>1619.39267</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="21">
         <v>22903.899970999999</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="21">
         <v>22918.44472</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="21">
         <v>11309</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="22">
         <f>E8-L8</f>
         <v>2.3507600000000366</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="23">
         <v>674</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="21">
         <v>1614.9885569999999</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="21">
         <v>1617.0419099999999</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="21">
         <v>25397.881858000001</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="21">
         <v>25414.020981000001</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="24">
         <v>11433</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="20">
         <v>1617.3363099999999</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="21">
         <v>1619.39267</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="21">
         <v>22903.899970999999</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="21">
         <v>22918.44472</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="21">
         <v>11309</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="21">
         <f>E8-Q8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W8" s="25">
         <v>25899002</v>
       </c>
-      <c r="W8" s="22" t="s">
+      <c r="X8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>1653.194778</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>1655.2965449999999</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>22469.645581000001</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>22483.926141</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>1013</v>
+      </c>
+      <c r="AE8" s="21">
+        <f t="shared" si="1"/>
+        <v>-35.903874999999971</v>
+      </c>
+      <c r="AF8" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Disminuyó</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y8" s="22">
-        <v>1653.194778</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>1655.2965449999999</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>22469.645581000001</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>22483.926141</v>
-      </c>
-      <c r="AC8" s="24">
-        <v>1013</v>
-      </c>
-      <c r="AD8" s="14">
-        <f t="shared" si="0"/>
-        <v>-35.903874999999971</v>
-      </c>
-      <c r="AE8" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Disminuyó</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="D9" s="20">
         <v>1567.1982399999999</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="21">
         <v>1569.173931</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="21">
         <v>25823.929088000001</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="21">
         <v>25840.217353</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="21">
         <v>3558</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="22">
         <f>E9-L9</f>
         <v>7.7696470000000772</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="23">
         <v>487</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="21">
         <v>1559.4383620000001</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="21">
         <v>1561.404284</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="21">
         <v>39897.807936999998</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="21">
         <v>39922.952506000001</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="24">
         <v>4197</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="20">
         <v>1567.1982399999999</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="21">
         <v>1569.173931</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="21">
         <v>25823.929088000001</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="21">
         <v>25840.217354</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="21">
         <v>3558</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="21">
         <f>E9-Q9</f>
         <v>0</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W9" s="25">
         <v>25899012</v>
       </c>
-      <c r="W9" s="22" t="s">
+      <c r="X9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>1586.231141</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>1588.2306160000001</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>25056.275197999999</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>25072.081957999999</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>432</v>
+      </c>
+      <c r="AE9" s="21">
+        <f t="shared" si="1"/>
+        <v>-19.056685000000016</v>
+      </c>
+      <c r="AF9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Disminuyó</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y9" s="22">
-        <v>1586.231141</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>1588.2306160000001</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>25056.275197999999</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>25072.081957999999</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>432</v>
-      </c>
-      <c r="AD9" s="14">
-        <f t="shared" si="0"/>
-        <v>-19.056685000000016</v>
-      </c>
-      <c r="AE9" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Disminuyó</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="D10" s="20">
         <v>1391.5594900000001</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="21">
         <v>1393.4024010000001</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="21">
         <v>21891.931159</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="21">
         <v>21906.411367000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="21">
         <v>5094</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="22">
         <f>E10-L10</f>
         <v>1.3000000080864993E-5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="23">
         <v>38</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="21">
         <v>1391.559477</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="21">
         <v>1393.402388</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="21">
         <v>21939.812840999999</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="21">
         <v>21954.324700000001</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="24">
         <v>5102</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="20">
         <v>1391.559489</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="21">
         <v>1393.4024010000001</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="21">
         <v>21891.931159</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="21">
         <v>21906.411367000001</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="21">
         <v>5094</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="21">
         <f>E10-Q10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W10" s="25">
         <v>25899001</v>
       </c>
-      <c r="W10" s="22" t="s">
+      <c r="X10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>1366.775457</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>1368.5857410000001</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>21662.720282999999</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>21677.049984000001</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>3101</v>
+      </c>
+      <c r="AE10" s="21">
+        <f t="shared" si="1"/>
+        <v>24.816659999999956</v>
+      </c>
+      <c r="AF10" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Aumentó</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y10" s="22">
-        <v>1366.775457</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>1368.5857410000001</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>21662.720282999999</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>21677.049984000001</v>
-      </c>
-      <c r="AC10" s="24">
-        <v>3101</v>
-      </c>
-      <c r="AD10" s="14">
-        <f t="shared" si="0"/>
-        <v>24.816659999999956</v>
-      </c>
-      <c r="AE10" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Aumentó</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="D11" s="20">
         <v>1195.8371999999999</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="21">
         <v>1197.3667829999999</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="21">
         <v>18889.149260999999</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="21">
         <v>18901.214333</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="21">
         <v>5081</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="22">
         <f>E11-L11</f>
         <v>0.76176099999997859</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="23">
         <v>841</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="21">
         <v>1195.0764180000001</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="21">
         <v>1196.605022</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="21">
         <v>19527.34966</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="21">
         <v>19539.824304999998</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="24">
         <v>5124</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="20">
         <v>1195.8371999999999</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="21">
         <v>1197.3667829999999</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="21">
         <v>18889.149260999999</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="21">
         <v>18901.214334</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="21">
         <v>5081</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="21">
         <f>E11-Q11</f>
         <v>0</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W11" s="25">
         <v>25899013</v>
       </c>
-      <c r="W11" s="22" t="s">
+      <c r="X11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>1206.3049020000001</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>1207.847933</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>18371.235559000001</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>18382.972699000002</v>
+      </c>
+      <c r="AD11" s="28">
+        <v>1616</v>
+      </c>
+      <c r="AE11" s="21">
+        <f t="shared" si="1"/>
+        <v>-10.481150000000071</v>
+      </c>
+      <c r="AF11" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Disminuyó</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y11" s="22">
-        <v>1206.3049020000001</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>1207.847933</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>18371.235559000001</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>18382.972699000002</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>1616</v>
-      </c>
-      <c r="AD11" s="14">
-        <f t="shared" si="0"/>
-        <v>-10.481150000000071</v>
-      </c>
-      <c r="AE11" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Disminuyó</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="D12" s="20">
         <v>1107.569911</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="21">
         <v>1109.009155</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="21">
         <v>19965.436063000001</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="21">
         <v>19978.411588999999</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="21">
         <v>3885</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="22">
         <f>E12-L12</f>
         <v>8.8371259999998983</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="23">
         <v>370</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="21">
         <v>1098.7442370000001</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="21">
         <v>1100.1720290000001</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="21">
         <v>28736.608674999999</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="21">
         <v>28755.266013</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="24">
         <v>4385</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="20">
         <v>1018.658036</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="21">
         <v>1019.9819199999999</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="21">
         <v>20662.928125999999</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="21">
         <v>20676.356075</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="21">
         <v>3898</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="21">
         <f>E12-Q12</f>
         <v>89.027235000000019</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Aumentó</v>
+      </c>
+      <c r="W12" s="25">
         <v>25899009</v>
       </c>
-      <c r="W12" s="22" t="s">
+      <c r="X12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>1123.077992</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>1124.5372299999999</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>21307.204396000001</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>21321.051852000001</v>
+      </c>
+      <c r="AD12" s="28">
+        <v>2922</v>
+      </c>
+      <c r="AE12" s="21">
+        <f t="shared" si="1"/>
+        <v>-15.528074999999944</v>
+      </c>
+      <c r="AF12" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Disminuyó</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="22">
-        <v>1123.077992</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>1124.5372299999999</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>21307.204396000001</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>21321.051852000001</v>
-      </c>
-      <c r="AC12" s="24">
-        <v>2922</v>
-      </c>
-      <c r="AD12" s="14">
-        <f t="shared" si="0"/>
-        <v>-15.528074999999944</v>
-      </c>
-      <c r="AE12" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Disminuyó</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="D13" s="20">
         <v>1070.574871</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="21">
         <v>1072.0044969999999</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="21">
         <v>16812.352039000001</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="21">
         <v>16823.568347</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="21">
         <v>3405</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="22">
         <f>E13-L13</f>
         <v>0.20851299999981165</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="23">
         <v>192</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="21">
         <v>1070.366634</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="21">
         <v>1071.7959840000001</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="21">
         <v>16952.046869000002</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="21">
         <v>16963.356451</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="24">
         <v>3433</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="20">
         <v>1070.574871</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="21">
         <v>1072.004496</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="21">
         <v>16812.352040000002</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="21">
         <v>16823.568347</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="21">
         <v>3405</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="21">
         <f>E13-Q13</f>
         <v>9.9999988378840499E-7</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Aumentó</v>
+      </c>
+      <c r="W13" s="25">
         <v>25899005</v>
       </c>
-      <c r="W13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y13" s="22">
+      <c r="X13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z13" s="26">
         <v>1058.3277129999999</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="AA13" s="21">
         <v>1059.740798</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AB13" s="21">
         <v>16514.297890999998</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AC13" s="21">
         <v>16525.306449</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AD13" s="28">
         <v>1388</v>
       </c>
-      <c r="AD13" s="14">
-        <f t="shared" si="0"/>
+      <c r="AE13" s="21">
+        <f t="shared" si="1"/>
         <v>12.26369899999986</v>
       </c>
-      <c r="AE13" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF13" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="20">
         <v>1064.9117140000001</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="21">
         <v>1066.2448280000001</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="21">
         <v>15697.266030000001</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="21">
         <v>15707.099144</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="21">
         <v>4734</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="22">
         <f>E14-L14</f>
         <v>2.00214700000015</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="23">
         <v>363</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="21">
         <v>1062.9120680000001</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="21">
         <v>1064.2426809999999</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="21">
         <v>19269.345862999999</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="21">
         <v>19281.408703000001</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="24">
         <v>4873</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="20">
         <v>1064.9117140000001</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="21">
         <v>1066.2448280000001</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="21">
         <v>15697.266030000001</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="21">
         <v>15707.099144</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="21">
         <v>4734</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14" s="21">
         <f>E14-Q14</f>
         <v>0</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W14" s="25">
         <v>25899010</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="X14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>1043.0820229999999</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>1044.3875640000001</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>13397.210486</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>13405.593112</v>
+      </c>
+      <c r="AD14" s="28">
+        <v>656</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" si="1"/>
+        <v>21.857263999999986</v>
+      </c>
+      <c r="AF14" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Aumentó</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y14" s="22">
-        <v>1043.0820229999999</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>1044.3875640000001</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>13397.210486</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>13405.593112</v>
-      </c>
-      <c r="AC14" s="24">
-        <v>656</v>
-      </c>
-      <c r="AD14" s="14">
-        <f t="shared" si="0"/>
-        <v>21.857263999999986</v>
-      </c>
-      <c r="AE14" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Aumentó</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="D15" s="20">
         <v>746.31942700000002</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="21">
         <v>747.30208700000003</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="21">
         <v>17066.676318000002</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="21">
         <v>17077.901127000001</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="21">
         <v>1860</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="22">
         <f>E15-L15</f>
         <v>31.713403000000085</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="23">
         <v>1959</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="21">
         <v>714.647693</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="21">
         <v>715.58868399999994</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="21">
         <v>55180.488596000003</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="21">
         <v>55216.800437999998</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="24">
         <v>4267</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="20">
         <v>728.51781300000005</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="21">
         <v>729.47715200000005</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="21">
         <v>15113.557846</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="21">
         <v>15123.503153</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="21">
         <v>1625</v>
       </c>
-      <c r="U15" s="19">
+      <c r="U15" s="21">
         <f>E15-Q15</f>
         <v>17.824934999999982</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Aumentó</v>
+      </c>
+      <c r="W15" s="25">
         <v>25899006</v>
       </c>
-      <c r="W15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y15" s="22">
+      <c r="X15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" s="26">
         <v>686.73618999999997</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AA15" s="21">
         <v>687.64084000000003</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AB15" s="21">
         <v>15291.797391</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AC15" s="21">
         <v>15301.861088</v>
       </c>
-      <c r="AC15" s="24">
+      <c r="AD15" s="28">
         <v>1031</v>
       </c>
-      <c r="AD15" s="14">
-        <f t="shared" si="0"/>
+      <c r="AE15" s="21">
+        <f t="shared" si="1"/>
         <v>59.661247000000003</v>
       </c>
-      <c r="AE15" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF15" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="20">
         <v>603.16344900000001</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="21">
         <v>603.94195500000001</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="21">
         <v>17536.611195000001</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="21">
         <v>17547.93721</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="21">
         <v>3848</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="22">
         <f>E16-L16</f>
         <v>0.40185800000006111</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="23">
         <v>1047</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="21">
         <v>602.762111</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="21">
         <v>603.54009699999995</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="21">
         <v>18340.562414</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="21">
         <v>18352.409689</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="24">
         <v>3918</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="20">
         <v>597.16395999999997</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="21">
         <v>597.93469500000003</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="21">
         <v>17625.338463</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="21">
         <v>17636.72178</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="21">
         <v>3673</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="21">
         <f>E16-Q16</f>
         <v>6.0072599999999738</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Aumentó</v>
+      </c>
+      <c r="W16" s="25">
         <v>25899011</v>
       </c>
-      <c r="W16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y16" s="22">
+      <c r="X16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z16" s="26">
         <v>636.93632300000002</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="AA16" s="21">
         <v>637.75779599999998</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AB16" s="21">
         <v>18889.349939</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AC16" s="21">
         <v>18901.539937000001</v>
       </c>
-      <c r="AC16" s="24">
+      <c r="AD16" s="28">
         <v>1538</v>
       </c>
-      <c r="AD16" s="14">
-        <f t="shared" si="0"/>
+      <c r="AE16" s="21">
+        <f t="shared" si="1"/>
         <v>-33.815840999999978</v>
       </c>
-      <c r="AE16" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF16" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Disminuyó</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="20">
         <v>598.21888000000001</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="21">
         <v>599.00347099999999</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="21">
         <v>14427.628777</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="21">
         <v>14437.095597</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="21">
         <v>2710</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="22">
         <f>E17-L17</f>
         <v>23.831457999999998</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="23">
         <v>2775</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="21">
         <v>574.41859199999999</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="21">
         <v>575.17201299999999</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="21">
         <v>45891.591097999997</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="21">
         <v>45921.674371000001</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="24">
         <v>5641</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="20">
         <v>566.60127299999999</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="21">
         <v>567.344382</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="21">
         <v>15018.749021</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="21">
         <v>15028.60326</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="21">
         <v>2720</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="21">
         <f>E17-Q17</f>
         <v>31.659088999999994</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Aumentó</v>
+      </c>
+      <c r="W17" s="25">
         <v>25899008</v>
       </c>
-      <c r="W17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="X17" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y17" s="22">
+      <c r="X17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" s="26">
         <v>533.69014700000002</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AA17" s="21">
         <v>534.39050199999997</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AB17" s="21">
         <v>16656.316179000001</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AC17" s="21">
         <v>16667.250080999998</v>
       </c>
-      <c r="AC17" s="24">
+      <c r="AD17" s="28">
         <v>1080</v>
       </c>
-      <c r="AD17" s="14">
-        <f t="shared" si="0"/>
+      <c r="AE17" s="21">
+        <f t="shared" si="1"/>
         <v>64.612969000000021</v>
       </c>
-      <c r="AE17" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF17" s="22" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="30">
         <v>257.71255400000001</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="31">
         <v>258.04473300000001</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="31">
         <v>11372.557870000001</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="31">
         <v>11379.882441</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="31">
         <v>2187</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="32">
         <f>E18-L18</f>
         <v>0.4929480000000126</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="33">
         <v>144</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="31">
         <v>257.22023899999999</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="31">
         <v>257.551785</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="31">
         <v>12463.048572</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="31">
         <v>12471.074247</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="34">
         <v>2313</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="30">
         <v>257.71255400000001</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="31">
         <v>258.04473300000001</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="31">
         <v>11372.557870000001</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="31">
         <v>11379.882441</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="31">
         <v>2187</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="31">
         <f>E18-Q18</f>
         <v>0</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="W18" s="35">
         <v>25899003</v>
       </c>
-      <c r="W18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="X18" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y18" s="23">
+      <c r="X18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="36">
         <v>172.010346</v>
       </c>
-      <c r="Z18" s="16">
+      <c r="AA18" s="31">
         <v>172.23183900000001</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AB18" s="31">
         <v>9885.7248560000007</v>
       </c>
-      <c r="AB18" s="16">
+      <c r="AC18" s="31">
         <v>9892.0881499999996</v>
       </c>
-      <c r="AC18" s="25">
+      <c r="AD18" s="38">
         <v>447</v>
       </c>
-      <c r="AD18" s="16">
-        <f t="shared" si="0"/>
+      <c r="AE18" s="31">
+        <f t="shared" si="1"/>
         <v>85.812894</v>
       </c>
-      <c r="AE18" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF18" s="32" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
     </row>
@@ -2508,10 +2575,11 @@
       <sortCondition descending="1" ref="E5:E18"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="AD4:AE4"/>
+  <mergeCells count="4">
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="U4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2538,13 +2606,13 @@
         <v>25899007</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1">
         <v>27585</v>
@@ -2553,19 +2621,19 @@
         <v>25899</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
       <c r="I1">
         <v>2010</v>
       </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -2577,7 +2645,7 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1">
         <v>0</v>
@@ -2612,13 +2680,13 @@
         <v>25899014</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>27584</v>
@@ -2627,19 +2695,19 @@
         <v>25899</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
       </c>
       <c r="I2">
         <v>2010</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2651,7 +2719,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2686,13 +2754,13 @@
         <v>25899004</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>27586</v>
@@ -2701,19 +2769,19 @@
         <v>25899</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
       </c>
       <c r="I3">
         <v>2010</v>
       </c>
       <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -2725,7 +2793,7 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2760,13 +2828,13 @@
         <v>25899002</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>27578</v>
@@ -2775,19 +2843,19 @@
         <v>25899</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
       </c>
       <c r="I4">
         <v>2010</v>
       </c>
       <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2799,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2834,13 +2902,13 @@
         <v>25899012</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>27583</v>
@@ -2849,19 +2917,19 @@
         <v>25899</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
       </c>
       <c r="I5">
         <v>2010</v>
       </c>
       <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2873,7 +2941,7 @@
         <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2908,13 +2976,13 @@
         <v>25899001</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>27576</v>
@@ -2923,19 +2991,19 @@
         <v>25899</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
       <c r="I6">
         <v>2010</v>
       </c>
       <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2947,7 +3015,7 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2982,13 +3050,13 @@
         <v>25899013</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>27574</v>
@@ -2997,19 +3065,19 @@
         <v>25899</v>
       </c>
       <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
       </c>
       <c r="I7">
         <v>2010</v>
       </c>
       <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3021,7 +3089,7 @@
         <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3056,13 +3124,13 @@
         <v>25899009</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>27575</v>
@@ -3071,19 +3139,19 @@
         <v>25899</v>
       </c>
       <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
       </c>
       <c r="I8">
         <v>2010</v>
       </c>
       <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3095,7 +3163,7 @@
         <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3130,13 +3198,13 @@
         <v>25899005</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>27581</v>
@@ -3145,19 +3213,19 @@
         <v>25899</v>
       </c>
       <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
       </c>
       <c r="I9">
         <v>2010</v>
       </c>
       <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3169,7 +3237,7 @@
         <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3204,13 +3272,13 @@
         <v>25899010</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>27580</v>
@@ -3219,19 +3287,19 @@
         <v>25899</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
       <c r="I10">
         <v>2010</v>
       </c>
       <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3243,7 +3311,7 @@
         <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3278,13 +3346,13 @@
         <v>25899006</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>27587</v>
@@ -3293,19 +3361,19 @@
         <v>25899</v>
       </c>
       <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
       <c r="I11">
         <v>2010</v>
       </c>
       <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
         <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -3317,7 +3385,7 @@
         <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3352,13 +3420,13 @@
         <v>25899011</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>27582</v>
@@ -3367,19 +3435,19 @@
         <v>25899</v>
       </c>
       <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
       </c>
       <c r="I12">
         <v>2010</v>
       </c>
       <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
         <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>31</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -3391,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3426,13 +3494,13 @@
         <v>25899008</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>27577</v>
@@ -3441,19 +3509,19 @@
         <v>25899</v>
       </c>
       <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
         <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
       </c>
       <c r="I13">
         <v>2010</v>
       </c>
       <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
         <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -3465,7 +3533,7 @@
         <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3500,13 +3568,13 @@
         <v>25899003</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>27579</v>
@@ -3515,19 +3583,19 @@
         <v>25899</v>
       </c>
       <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
       <c r="I14">
         <v>2010</v>
       </c>
       <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3539,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14">
         <v>0</v>

--- a/activity/CountyLimit/VeredaLimite.xlsx
+++ b/activity/CountyLimit/VeredaLimite.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\CountyLimit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF4D59-AC6B-49A9-AC12-EA8873ECF85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFCAF81-40D5-475E-A3D5-C078E878E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veredas" sheetId="1" r:id="rId1"/>
+    <sheet name="Municipio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Veredas!$B$4:$AF$18</definedName>
@@ -38,8 +39,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{2FFE6770-2127-4283-A9DC-929E73693C56}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obtenido de la sumatoria de suelos con clasificación diferente a urbana y expansión.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Mapa veredal diagnóstico POT año 2010</t>
   </si>
@@ -204,17 +228,50 @@
     <t>Vereda año 2010</t>
   </si>
   <si>
-    <t>Análisis veredal a partir de información base utilizada en el diagnóstico y elaboración del POT 2010 vs. DANE 2020</t>
-  </si>
-  <si>
     <t>Cambió de código y actualización nombre</t>
+  </si>
+  <si>
+    <t>Límite territorial disuelto</t>
+  </si>
+  <si>
+    <t>Mpio25899_DiagnosticoPOT2010.shp</t>
+  </si>
+  <si>
+    <t>Mpio25899_FormulacionPOT2013.shp</t>
+  </si>
+  <si>
+    <t>Mpio25899_DANE2020.shp</t>
+  </si>
+  <si>
+    <t>Mpio25899_MOT2013.shp</t>
+  </si>
+  <si>
+    <t>AGha veredal</t>
+  </si>
+  <si>
+    <t>AGha urbana</t>
+  </si>
+  <si>
+    <t>Análisis veredal a partir de información base utilizada en el diagnóstico y elaboración del POT e información DANE</t>
+  </si>
+  <si>
+    <t>Análisis municipal a partir de información base utilizada en el diagnóstico y elaboración del POT e información DANE</t>
+  </si>
+  <si>
+    <t>Σ</t>
+  </si>
+  <si>
+    <t>% cambio urbano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +289,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -539,10 +609,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -577,90 +648,130 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF18"/>
+  <dimension ref="B2:AF19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -962,7 +1073,9 @@
     <col min="23" max="23" width="10.1328125" style="3" customWidth="1"/>
     <col min="24" max="24" width="21.06640625" style="3" customWidth="1"/>
     <col min="25" max="25" width="39.86328125" style="4" customWidth="1"/>
-    <col min="26" max="30" width="9.1328125" style="3" customWidth="1"/>
+    <col min="26" max="27" width="9.1328125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.19921875" style="3" customWidth="1"/>
+    <col min="29" max="30" width="9.1328125" style="3" customWidth="1"/>
     <col min="31" max="31" width="8.33203125" style="3" customWidth="1"/>
     <col min="32" max="32" width="10.265625" style="3" customWidth="1"/>
     <col min="33" max="16384" width="9.06640625" style="3"/>
@@ -970,12 +1083,12 @@
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1015,10 +1128,10 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="2:32" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1072,20 +1185,20 @@
       <c r="T4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="13"/>
+      <c r="V4" s="36"/>
       <c r="W4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="AA4" s="10" t="s">
@@ -1100,1409 +1213,1510 @@
       <c r="AD4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="13"/>
+      <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>257.71255400000001</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>258.04473300000001</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>11372.557870000001</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>11379.882441</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>2187</v>
       </c>
-      <c r="I5" s="18">
-        <f>E5-L5</f>
+      <c r="I5" s="16">
+        <f t="shared" ref="I5:I18" si="0">E5-L5</f>
         <v>0.4929480000000126</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>144</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>257.22023899999999</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>257.551785</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>12463.048572</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>12471.074247</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="18">
         <v>2313</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <v>257.71255400000001</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="15">
         <v>258.04473300000001</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="15">
         <v>11372.557870000001</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="15">
         <v>11379.882441</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="15">
         <v>2187</v>
       </c>
-      <c r="U5" s="17">
-        <f>E5-Q5</f>
+      <c r="U5" s="15">
+        <f t="shared" ref="U5:U18" si="1">E5-Q5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="18" t="str">
-        <f>IF(U5&gt;0,"Aumentó",IF(U5=0,"Igual","Disminuyó"))</f>
+      <c r="V5" s="16" t="str">
+        <f t="shared" ref="V5:V18" si="2">IF(U5&gt;0,"Aumentó",IF(U5=0,"Igual","Disminuyó"))</f>
         <v>Igual</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="17">
         <v>25899003</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z5" s="22">
+      <c r="Y5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="19">
         <v>172.010346</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="15">
         <v>172.23183900000001</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="15">
         <v>9885.7248560000007</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="15">
         <v>9892.0881499999996</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="21">
         <v>447</v>
       </c>
-      <c r="AE5" s="17">
-        <f>E5-AA5</f>
+      <c r="AE5" s="15">
+        <f t="shared" ref="AE5:AE18" si="3">E5-AA5</f>
         <v>85.812894</v>
       </c>
-      <c r="AF5" s="18" t="str">
-        <f>IF(AE5&gt;0,"Aumentó",IF(AE5=0,"Igual","Disminuyó"))</f>
+      <c r="AF5" s="16" t="str">
+        <f t="shared" ref="AF5:AF18" si="4">IF(AE5&gt;0,"Aumentó",IF(AE5=0,"Igual","Disminuyó"))</f>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>1107.569911</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>1109.009155</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>19965.436063000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>19978.411588999999</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>3885</v>
       </c>
-      <c r="I6" s="18">
-        <f>E6-L6</f>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
         <v>8.8371259999998983</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>370</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <v>1098.7442370000001</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <v>1100.1720290000001</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <v>28736.608674999999</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <v>28755.266013</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>4385</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <v>1018.658036</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="15">
         <v>1019.9819199999999</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="15">
         <v>20662.928125999999</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="15">
         <v>20676.356075</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="15">
         <v>3898</v>
       </c>
-      <c r="U6" s="17">
-        <f>E6-Q6</f>
+      <c r="U6" s="15">
+        <f t="shared" si="1"/>
         <v>89.027235000000019</v>
       </c>
-      <c r="V6" s="18" t="str">
-        <f>IF(U6&gt;0,"Aumentó",IF(U6=0,"Igual","Disminuyó"))</f>
+      <c r="V6" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="17">
         <v>25899009</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="19">
         <v>1123.077992</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="15">
         <v>1124.5372299999999</v>
       </c>
-      <c r="AB6" s="17">
+      <c r="AB6" s="15">
         <v>21307.204396000001</v>
       </c>
-      <c r="AC6" s="17">
+      <c r="AC6" s="15">
         <v>21321.051852000001</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="21">
         <v>2922</v>
       </c>
-      <c r="AE6" s="17">
-        <f>E6-AA6</f>
+      <c r="AE6" s="15">
+        <f t="shared" si="3"/>
         <v>-15.528074999999944</v>
       </c>
-      <c r="AF6" s="18" t="str">
-        <f>IF(AE6&gt;0,"Aumentó",IF(AE6=0,"Igual","Disminuyó"))</f>
+      <c r="AF6" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Disminuyó</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>598.21888000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>599.00347099999999</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>14427.628777</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>14437.095597</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>2710</v>
       </c>
-      <c r="I7" s="18">
-        <f>E7-L7</f>
+      <c r="I7" s="16">
+        <f t="shared" si="0"/>
         <v>23.831457999999998</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>2775</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <v>574.41859199999999</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="15">
         <v>575.17201299999999</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="15">
         <v>45891.591097999997</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="15">
         <v>45921.674371000001</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <v>5641</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <v>566.60127299999999</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="15">
         <v>567.344382</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <v>15018.749021</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="15">
         <v>15028.60326</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="15">
         <v>2720</v>
       </c>
-      <c r="U7" s="17">
-        <f>E7-Q7</f>
+      <c r="U7" s="15">
+        <f t="shared" si="1"/>
         <v>31.659088999999994</v>
       </c>
-      <c r="V7" s="18" t="str">
-        <f>IF(U7&gt;0,"Aumentó",IF(U7=0,"Igual","Disminuyó"))</f>
+      <c r="V7" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="17">
         <v>25899008</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="X7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="22">
+      <c r="Y7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" s="19">
         <v>533.69014700000002</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="15">
         <v>534.39050199999997</v>
       </c>
-      <c r="AB7" s="17">
+      <c r="AB7" s="15">
         <v>16656.316179000001</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="15">
         <v>16667.250080999998</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="21">
         <v>1080</v>
       </c>
-      <c r="AE7" s="17">
-        <f>E7-AA7</f>
+      <c r="AE7" s="15">
+        <f t="shared" si="3"/>
         <v>64.612969000000021</v>
       </c>
-      <c r="AF7" s="18" t="str">
-        <f>IF(AE7&gt;0,"Aumentó",IF(AE7=0,"Igual","Disminuyó"))</f>
+      <c r="AF7" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>1070.574871</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>1072.0044969999999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>16812.352039000001</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>16823.568347</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>3405</v>
       </c>
-      <c r="I8" s="18">
-        <f>E8-L8</f>
+      <c r="I8" s="16">
+        <f t="shared" si="0"/>
         <v>0.20851299999981165</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>192</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <v>1070.366634</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <v>1071.7959840000001</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="15">
         <v>16952.046869000002</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="15">
         <v>16963.356451</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="18">
         <v>3433</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <v>1070.574871</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="15">
         <v>1072.004496</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <v>16812.352040000002</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="15">
         <v>16823.568347</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="15">
         <v>3405</v>
       </c>
-      <c r="U8" s="17">
-        <f>E8-Q8</f>
+      <c r="U8" s="15">
+        <f t="shared" si="1"/>
         <v>9.9999988378840499E-7</v>
       </c>
-      <c r="V8" s="18" t="str">
-        <f>IF(U8&gt;0,"Aumentó",IF(U8=0,"Igual","Disminuyó"))</f>
+      <c r="V8" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="17">
         <v>25899005</v>
       </c>
-      <c r="X8" s="22" t="s">
+      <c r="X8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="19">
         <v>1058.3277129999999</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="15">
         <v>1059.740798</v>
       </c>
-      <c r="AB8" s="17">
+      <c r="AB8" s="15">
         <v>16514.297890999998</v>
       </c>
-      <c r="AC8" s="17">
+      <c r="AC8" s="15">
         <v>16525.306449</v>
       </c>
-      <c r="AD8" s="24">
+      <c r="AD8" s="21">
         <v>1388</v>
       </c>
-      <c r="AE8" s="17">
-        <f>E8-AA8</f>
+      <c r="AE8" s="15">
+        <f t="shared" si="3"/>
         <v>12.26369899999986</v>
       </c>
-      <c r="AF8" s="18" t="str">
-        <f>IF(AE8&gt;0,"Aumentó",IF(AE8=0,"Igual","Disminuyó"))</f>
+      <c r="AF8" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>746.31942700000002</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>747.30208700000003</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>17066.676318000002</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>17077.901127000001</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>1860</v>
       </c>
-      <c r="I9" s="18">
-        <f>E9-L9</f>
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
         <v>31.713403000000085</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>1959</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>714.647693</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="15">
         <v>715.58868399999994</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <v>55180.488596000003</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="15">
         <v>55216.800437999998</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="18">
         <v>4267</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <v>728.51781300000005</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="15">
         <v>729.47715200000005</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="15">
         <v>15113.557846</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="15">
         <v>15123.503153</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="15">
         <v>1625</v>
       </c>
-      <c r="U9" s="17">
-        <f>E9-Q9</f>
+      <c r="U9" s="15">
+        <f t="shared" si="1"/>
         <v>17.824934999999982</v>
       </c>
-      <c r="V9" s="18" t="str">
-        <f>IF(U9&gt;0,"Aumentó",IF(U9=0,"Igual","Disminuyó"))</f>
+      <c r="V9" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="17">
         <v>25899006</v>
       </c>
-      <c r="X9" s="22" t="s">
+      <c r="X9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="19">
         <v>686.73618999999997</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="15">
         <v>687.64084000000003</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="15">
         <v>15291.797391</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="15">
         <v>15301.861088</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="21">
         <v>1031</v>
       </c>
-      <c r="AE9" s="17">
-        <f>E9-AA9</f>
+      <c r="AE9" s="15">
+        <f t="shared" si="3"/>
         <v>59.661247000000003</v>
       </c>
-      <c r="AF9" s="18" t="str">
-        <f>IF(AE9&gt;0,"Aumentó",IF(AE9=0,"Igual","Disminuyó"))</f>
+      <c r="AF9" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>603.16344900000001</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>603.94195500000001</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>17536.611195000001</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>17547.93721</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>3848</v>
       </c>
-      <c r="I10" s="18">
-        <f>E10-L10</f>
+      <c r="I10" s="16">
+        <f t="shared" si="0"/>
         <v>0.40185800000006111</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>1047</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <v>602.762111</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="15">
         <v>603.54009699999995</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="15">
         <v>18340.562414</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="15">
         <v>18352.409689</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="18">
         <v>3918</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <v>597.16395999999997</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="15">
         <v>597.93469500000003</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="15">
         <v>17625.338463</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="15">
         <v>17636.72178</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="15">
         <v>3673</v>
       </c>
-      <c r="U10" s="17">
-        <f>E10-Q10</f>
+      <c r="U10" s="15">
+        <f t="shared" si="1"/>
         <v>6.0072599999999738</v>
       </c>
-      <c r="V10" s="18" t="str">
-        <f>IF(U10&gt;0,"Aumentó",IF(U10=0,"Igual","Disminuyó"))</f>
+      <c r="V10" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Aumentó</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="17">
         <v>25899011</v>
       </c>
-      <c r="X10" s="22" t="s">
+      <c r="X10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Y10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="19">
         <v>636.93632300000002</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="15">
         <v>637.75779599999998</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="15">
         <v>18889.349939</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="15">
         <v>18901.539937000001</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="21">
         <v>1538</v>
       </c>
-      <c r="AE10" s="17">
-        <f>E10-AA10</f>
+      <c r="AE10" s="15">
+        <f t="shared" si="3"/>
         <v>-33.815840999999978</v>
       </c>
-      <c r="AF10" s="18" t="str">
-        <f>IF(AE10&gt;0,"Aumentó",IF(AE10=0,"Igual","Disminuyó"))</f>
+      <c r="AF10" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Disminuyó</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>2333.428566</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>2336.4074430000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>31777.276657999999</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>31797.584338000001</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>3361</v>
       </c>
-      <c r="I11" s="18">
-        <f>E11-L11</f>
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
         <v>7.1211020000000644</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>165</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <v>2326.3164459999998</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <v>2329.286341</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <v>31942.143803999999</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="15">
         <v>31962.555853999998</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="18">
         <v>3381</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="14">
         <v>2333.428566</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="15">
         <v>2336.4074430000001</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="15">
         <v>31777.276656999999</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="15">
         <v>31797.584338000001</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="15">
         <v>3361</v>
       </c>
-      <c r="U11" s="17">
-        <f>E11-Q11</f>
+      <c r="U11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="18" t="str">
-        <f>IF(U11&gt;0,"Aumentó",IF(U11=0,"Igual","Disminuyó"))</f>
+      <c r="V11" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11" s="17">
         <v>25899014</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="X11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="19">
         <v>2267.6664070000002</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="AA11" s="15">
         <v>2270.5608000000002</v>
       </c>
-      <c r="AB11" s="17">
+      <c r="AB11" s="15">
         <v>25598.484103999999</v>
       </c>
-      <c r="AC11" s="17">
+      <c r="AC11" s="15">
         <v>25614.829342000001</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="21">
         <v>565</v>
       </c>
-      <c r="AE11" s="17">
-        <f>E11-AA11</f>
+      <c r="AE11" s="15">
+        <f t="shared" si="3"/>
         <v>65.846642999999858</v>
       </c>
-      <c r="AF11" s="18" t="str">
-        <f>IF(AE11&gt;0,"Aumentó",IF(AE11=0,"Igual","Disminuyó"))</f>
+      <c r="AF11" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>3427.0674119999999</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>3431.423194</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>30139.713218000001</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>30158.859305999998</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>1408</v>
       </c>
-      <c r="I12" s="18">
-        <f>E12-L12</f>
+      <c r="I12" s="16">
+        <f t="shared" si="0"/>
         <v>24.180578999999852</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <v>355</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <v>3402.9172899999999</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <v>3407.2426150000001</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="15">
         <v>52937.951256</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="15">
         <v>52971.509874000003</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="18">
         <v>2256</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <v>3427.0674119999999</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="15">
         <v>3431.423194</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="15">
         <v>30139.713218000001</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <v>30158.859305999998</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="15">
         <v>1408</v>
       </c>
-      <c r="U12" s="17">
-        <f>E12-Q12</f>
+      <c r="U12" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="18" t="str">
-        <f>IF(U12&gt;0,"Aumentó",IF(U12=0,"Igual","Disminuyó"))</f>
+      <c r="V12" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W12" s="21">
+      <c r="W12" s="17">
         <v>25899007</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="19">
         <v>3380.0677580000001</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="15">
         <v>3384.3642399999999</v>
       </c>
-      <c r="AB12" s="17">
+      <c r="AB12" s="15">
         <v>28844.790943</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="15">
         <v>28863.122175</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="21">
         <v>1901</v>
       </c>
-      <c r="AE12" s="17">
-        <f>E12-AA12</f>
+      <c r="AE12" s="15">
+        <f t="shared" si="3"/>
         <v>47.058954000000085</v>
       </c>
-      <c r="AF12" s="18" t="str">
-        <f>IF(AE12&gt;0,"Aumentó",IF(AE12=0,"Igual","Disminuyó"))</f>
+      <c r="AF12" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>1721.9935829999999</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>1724.1463450000001</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>33356.647205000001</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>33377.504881000001</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <v>2870</v>
       </c>
-      <c r="I13" s="18">
-        <f>E13-L13</f>
+      <c r="I13" s="16">
+        <f t="shared" si="0"/>
         <v>5.3989100000001145</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>144</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="15">
         <v>1716.6014230000001</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="15">
         <v>1718.747435</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="15">
         <v>44448.436241000003</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="15">
         <v>44476.232454999998</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="18">
         <v>3460</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="14">
         <v>1721.9935829999999</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="15">
         <v>1724.1463450000001</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="15">
         <v>33356.647205000001</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="15">
         <v>33377.504881000001</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="15">
         <v>2870</v>
       </c>
-      <c r="U13" s="17">
-        <f>E13-Q13</f>
+      <c r="U13" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="18" t="str">
-        <f>IF(U13&gt;0,"Aumentó",IF(U13=0,"Igual","Disminuyó"))</f>
+      <c r="V13" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="17">
         <v>25899004</v>
       </c>
-      <c r="X13" s="22" t="s">
+      <c r="X13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Y13" s="23" t="s">
+      <c r="Y13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="19">
         <v>1719.7704550000001</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="15">
         <v>1721.921028</v>
       </c>
-      <c r="AB13" s="17">
+      <c r="AB13" s="15">
         <v>38975.878592000001</v>
       </c>
-      <c r="AC13" s="17">
+      <c r="AC13" s="15">
         <v>39000.279891999999</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="21">
         <v>1985</v>
       </c>
-      <c r="AE13" s="17">
-        <f>E13-AA13</f>
+      <c r="AE13" s="15">
+        <f t="shared" si="3"/>
         <v>2.2253170000001319</v>
       </c>
-      <c r="AF13" s="18" t="str">
-        <f>IF(AE13&gt;0,"Aumentó",IF(AE13=0,"Igual","Disminuyó"))</f>
+      <c r="AF13" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>1567.1982399999999</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>1569.173931</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>25823.929088000001</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>25840.217353</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>3558</v>
       </c>
-      <c r="I14" s="18">
-        <f>E14-L14</f>
+      <c r="I14" s="16">
+        <f t="shared" si="0"/>
         <v>7.7696470000000772</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>487</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="15">
         <v>1559.4383620000001</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <v>1561.404284</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="15">
         <v>39897.807936999998</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="15">
         <v>39922.952506000001</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="18">
         <v>4197</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <v>1567.1982399999999</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="15">
         <v>1569.173931</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="15">
         <v>25823.929088000001</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="15">
         <v>25840.217354</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="15">
         <v>3558</v>
       </c>
-      <c r="U14" s="17">
-        <f>E14-Q14</f>
+      <c r="U14" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="18" t="str">
-        <f>IF(U14&gt;0,"Aumentó",IF(U14=0,"Igual","Disminuyó"))</f>
+      <c r="V14" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W14" s="21">
+      <c r="W14" s="17">
         <v>25899012</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y14" s="23" t="s">
+      <c r="Y14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="19">
         <v>1586.231141</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="15">
         <v>1588.2306160000001</v>
       </c>
-      <c r="AB14" s="17">
+      <c r="AB14" s="15">
         <v>25056.275197999999</v>
       </c>
-      <c r="AC14" s="17">
+      <c r="AC14" s="15">
         <v>25072.081957999999</v>
       </c>
-      <c r="AD14" s="24">
+      <c r="AD14" s="21">
         <v>432</v>
       </c>
-      <c r="AE14" s="17">
-        <f>E14-AA14</f>
+      <c r="AE14" s="15">
+        <f t="shared" si="3"/>
         <v>-19.056685000000016</v>
       </c>
-      <c r="AF14" s="18" t="str">
-        <f>IF(AE14&gt;0,"Aumentó",IF(AE14=0,"Igual","Disminuyó"))</f>
+      <c r="AF14" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Disminuyó</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>1064.9117140000001</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>1066.2448280000001</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>15697.266030000001</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>15707.099144</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>4734</v>
       </c>
-      <c r="I15" s="18">
-        <f>E15-L15</f>
+      <c r="I15" s="16">
+        <f t="shared" si="0"/>
         <v>2.00214700000015</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>363</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <v>1062.9120680000001</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <v>1064.2426809999999</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="15">
         <v>19269.345862999999</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="15">
         <v>19281.408703000001</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="18">
         <v>4873</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="14">
         <v>1064.9117140000001</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="15">
         <v>1066.2448280000001</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="15">
         <v>15697.266030000001</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="15">
         <v>15707.099144</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="15">
         <v>4734</v>
       </c>
-      <c r="U15" s="17">
-        <f>E15-Q15</f>
+      <c r="U15" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V15" s="18" t="str">
-        <f>IF(U15&gt;0,"Aumentó",IF(U15=0,"Igual","Disminuyó"))</f>
+      <c r="V15" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="17">
         <v>25899010</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" s="23" t="s">
+      <c r="Y15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="22">
+      <c r="Z15" s="19">
         <v>1043.0820229999999</v>
       </c>
-      <c r="AA15" s="17">
+      <c r="AA15" s="15">
         <v>1044.3875640000001</v>
       </c>
-      <c r="AB15" s="17">
+      <c r="AB15" s="15">
         <v>13397.210486</v>
       </c>
-      <c r="AC15" s="17">
+      <c r="AC15" s="15">
         <v>13405.593112</v>
       </c>
-      <c r="AD15" s="24">
+      <c r="AD15" s="21">
         <v>656</v>
       </c>
-      <c r="AE15" s="17">
-        <f>E15-AA15</f>
+      <c r="AE15" s="15">
+        <f t="shared" si="3"/>
         <v>21.857263999999986</v>
       </c>
-      <c r="AF15" s="18" t="str">
-        <f>IF(AE15&gt;0,"Aumentó",IF(AE15=0,"Igual","Disminuyó"))</f>
+      <c r="AF15" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>1617.3363099999999</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>1619.39267</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>22903.899970999999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <v>22918.44472</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>11309</v>
       </c>
-      <c r="I16" s="18">
-        <f>E16-L16</f>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
         <v>2.3507600000000366</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>674</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <v>1614.9885569999999</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <v>1617.0419099999999</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="15">
         <v>25397.881858000001</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="15">
         <v>25414.020981000001</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="18">
         <v>11433</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <v>1617.3363099999999</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="15">
         <v>1619.39267</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="15">
         <v>22903.899970999999</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="15">
         <v>22918.44472</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="15">
         <v>11309</v>
       </c>
-      <c r="U16" s="17">
-        <f>E16-Q16</f>
+      <c r="U16" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V16" s="18" t="str">
-        <f>IF(U16&gt;0,"Aumentó",IF(U16=0,"Igual","Disminuyó"))</f>
+      <c r="V16" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W16" s="21">
+      <c r="W16" s="17">
         <v>25899002</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Y16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" s="22">
+      <c r="Y16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="19">
         <v>1653.194778</v>
       </c>
-      <c r="AA16" s="17">
+      <c r="AA16" s="15">
         <v>1655.2965449999999</v>
       </c>
-      <c r="AB16" s="17">
+      <c r="AB16" s="15">
         <v>22469.645581000001</v>
       </c>
-      <c r="AC16" s="17">
+      <c r="AC16" s="15">
         <v>22483.926141</v>
       </c>
-      <c r="AD16" s="24">
+      <c r="AD16" s="21">
         <v>1013</v>
       </c>
-      <c r="AE16" s="17">
-        <f>E16-AA16</f>
+      <c r="AE16" s="15">
+        <f t="shared" si="3"/>
         <v>-35.903874999999971</v>
       </c>
-      <c r="AF16" s="18" t="str">
-        <f>IF(AE16&gt;0,"Aumentó",IF(AE16=0,"Igual","Disminuyó"))</f>
+      <c r="AF16" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Disminuyó</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>1195.8371999999999</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>1197.3667829999999</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>18889.149260999999</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="15">
         <v>18901.214333</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>5081</v>
       </c>
-      <c r="I17" s="18">
-        <f>E17-L17</f>
+      <c r="I17" s="16">
+        <f t="shared" si="0"/>
         <v>0.76176099999997859</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>841</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <v>1195.0764180000001</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="15">
         <v>1196.605022</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="15">
         <v>19527.34966</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="15">
         <v>19539.824304999998</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="18">
         <v>5124</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <v>1195.8371999999999</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="15">
         <v>1197.3667829999999</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="15">
         <v>18889.149260999999</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="15">
         <v>18901.214334</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="15">
         <v>5081</v>
       </c>
-      <c r="U17" s="17">
-        <f>E17-Q17</f>
+      <c r="U17" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V17" s="18" t="str">
-        <f>IF(U17&gt;0,"Aumentó",IF(U17=0,"Igual","Disminuyó"))</f>
+      <c r="V17" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17" s="17">
         <v>25899013</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="23" t="s">
+      <c r="Y17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="19">
         <v>1206.3049020000001</v>
       </c>
-      <c r="AA17" s="17">
+      <c r="AA17" s="15">
         <v>1207.847933</v>
       </c>
-      <c r="AB17" s="17">
+      <c r="AB17" s="15">
         <v>18371.235559000001</v>
       </c>
-      <c r="AC17" s="17">
+      <c r="AC17" s="15">
         <v>18382.972699000002</v>
       </c>
-      <c r="AD17" s="24">
+      <c r="AD17" s="21">
         <v>1616</v>
       </c>
-      <c r="AE17" s="17">
-        <f>E17-AA17</f>
+      <c r="AE17" s="15">
+        <f t="shared" si="3"/>
         <v>-10.481150000000071</v>
       </c>
-      <c r="AF17" s="18" t="str">
-        <f>IF(AE17&gt;0,"Aumentó",IF(AE17=0,"Igual","Disminuyó"))</f>
+      <c r="AF17" s="16" t="str">
+        <f t="shared" si="4"/>
         <v>Disminuyó</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="23">
         <v>1391.5594900000001</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>1393.4024010000001</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="24">
         <v>21891.931159</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <v>21906.411367000001</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="24">
         <v>5094</v>
       </c>
-      <c r="I18" s="28">
-        <f>E18-L18</f>
+      <c r="I18" s="25">
+        <f t="shared" si="0"/>
         <v>1.3000000080864993E-5</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="26">
         <v>38</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="24">
         <v>1391.559477</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="24">
         <v>1393.402388</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="24">
         <v>21939.812840999999</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="24">
         <v>21954.324700000001</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="27">
         <v>5102</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="23">
         <v>1391.559489</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="24">
         <v>1393.4024010000001</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="24">
         <v>21891.931159</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="24">
         <v>21906.411367000001</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="24">
         <v>5094</v>
       </c>
-      <c r="U18" s="27">
-        <f>E18-Q18</f>
+      <c r="U18" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="28" t="str">
-        <f>IF(U18&gt;0,"Aumentó",IF(U18=0,"Igual","Disminuyó"))</f>
+      <c r="V18" s="25" t="str">
+        <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="26">
         <v>25899001</v>
       </c>
-      <c r="X18" s="32" t="s">
+      <c r="X18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="33" t="s">
+      <c r="Y18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" s="32">
+      <c r="Z18" s="28">
         <v>1366.775457</v>
       </c>
-      <c r="AA18" s="27">
+      <c r="AA18" s="24">
         <v>1368.5857410000001</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AB18" s="24">
         <v>21662.720282999999</v>
       </c>
-      <c r="AC18" s="27">
+      <c r="AC18" s="24">
         <v>21677.049984000001</v>
       </c>
-      <c r="AD18" s="34">
+      <c r="AD18" s="30">
         <v>3101</v>
       </c>
-      <c r="AE18" s="27">
-        <f>E18-AA18</f>
+      <c r="AE18" s="24">
+        <f t="shared" si="3"/>
         <v>24.816659999999956</v>
       </c>
-      <c r="AF18" s="28" t="str">
-        <f>IF(AE18&gt;0,"Aumentó",IF(AE18=0,"Igual","Disminuyó"))</f>
+      <c r="AF18" s="25" t="str">
+        <f t="shared" si="4"/>
         <v>Aumentó</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="C19" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="40">
+        <f>SUM(D5:D18)</f>
+        <v>18702.891606999998</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" ref="E19:U19" si="5">SUM(E5:E18)</f>
+        <v>18726.863492999997</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="5"/>
+        <v>297661.07485199999</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" si="5"/>
+        <v>297852.13175300002</v>
+      </c>
+      <c r="H19" s="40">
+        <f t="shared" si="5"/>
+        <v>55310</v>
+      </c>
+      <c r="I19" s="40">
+        <f t="shared" si="5"/>
+        <v>115.07022500000022</v>
+      </c>
+      <c r="J19" s="40">
+        <f t="shared" si="5"/>
+        <v>9554</v>
+      </c>
+      <c r="K19" s="40">
+        <f t="shared" si="5"/>
+        <v>18587.969547000001</v>
+      </c>
+      <c r="L19" s="40">
+        <f t="shared" si="5"/>
+        <v>18611.793267999998</v>
+      </c>
+      <c r="M19" s="40">
+        <f t="shared" si="5"/>
+        <v>432925.07568399998</v>
+      </c>
+      <c r="N19" s="40">
+        <f t="shared" si="5"/>
+        <v>433203.41058699996</v>
+      </c>
+      <c r="O19" s="40">
+        <f t="shared" si="5"/>
+        <v>63783</v>
+      </c>
+      <c r="P19" s="40">
+        <f t="shared" si="5"/>
+        <v>18558.561021000001</v>
+      </c>
+      <c r="Q19" s="40">
+        <f t="shared" si="5"/>
+        <v>18582.344972999999</v>
+      </c>
+      <c r="R19" s="40">
+        <f t="shared" si="5"/>
+        <v>297085.29595499998</v>
+      </c>
+      <c r="S19" s="40">
+        <f t="shared" si="5"/>
+        <v>297275.97050000005</v>
+      </c>
+      <c r="T19" s="40">
+        <f t="shared" si="5"/>
+        <v>54923</v>
+      </c>
+      <c r="U19" s="40">
+        <f t="shared" si="5"/>
+        <v>144.51851999999985</v>
+      </c>
+      <c r="Z19" s="40">
+        <f t="shared" ref="Z19" si="6">SUM(Z5:Z18)</f>
+        <v>18433.871632000002</v>
+      </c>
+      <c r="AA19" s="40">
+        <f t="shared" ref="AA19" si="7">SUM(AA5:AA18)</f>
+        <v>18457.493471999998</v>
+      </c>
+      <c r="AB19" s="40">
+        <f t="shared" ref="AB19" si="8">SUM(AB5:AB18)</f>
+        <v>292920.93139799993</v>
+      </c>
+      <c r="AC19" s="40">
+        <f t="shared" ref="AC19" si="9">SUM(AC5:AC18)</f>
+        <v>293108.95285999996</v>
+      </c>
+      <c r="AD19" s="40">
+        <f t="shared" ref="AD19" si="10">SUM(AD5:AD18)</f>
+        <v>19675</v>
+      </c>
+      <c r="AE19" s="40">
+        <f t="shared" ref="AE19" si="11">SUM(AE5:AE18)</f>
+        <v>269.37002099999995</v>
       </c>
     </row>
   </sheetData>
@@ -2519,4 +2733,189 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA30D97F-D4F4-4679-9F92-1AB237129D26}">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="36.265625" style="37" customWidth="1"/>
+    <col min="3" max="4" width="8.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.53125" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="B3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>19497.37</v>
+      </c>
+      <c r="D4" s="41">
+        <v>19522.38</v>
+      </c>
+      <c r="E4" s="41">
+        <v>107553.74</v>
+      </c>
+      <c r="F4" s="41">
+        <v>107623</v>
+      </c>
+      <c r="G4" s="41">
+        <v>25951</v>
+      </c>
+      <c r="H4" s="42">
+        <f>Veredas!E19</f>
+        <v>18726.863492999997</v>
+      </c>
+      <c r="I4" s="42">
+        <f>D4-H4</f>
+        <v>795.51650700000391</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="41">
+        <v>19497.37</v>
+      </c>
+      <c r="D5" s="41">
+        <v>19522.38</v>
+      </c>
+      <c r="E5" s="41">
+        <v>107553.74</v>
+      </c>
+      <c r="F5" s="41">
+        <v>107623</v>
+      </c>
+      <c r="G5" s="41">
+        <v>25951</v>
+      </c>
+      <c r="H5" s="42">
+        <f>Veredas!Q19</f>
+        <v>18582.344972999999</v>
+      </c>
+      <c r="I5" s="42">
+        <f t="shared" ref="I5:I7" si="0">D5-H5</f>
+        <v>940.03502700000172</v>
+      </c>
+      <c r="J5" s="50">
+        <f>(I5/$I$4)-1</f>
+        <v>0.18166627433665195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="41">
+        <v>19497.39</v>
+      </c>
+      <c r="D6" s="41">
+        <v>19522.39</v>
+      </c>
+      <c r="E6" s="41">
+        <v>107576.3</v>
+      </c>
+      <c r="F6" s="41">
+        <v>107645.57</v>
+      </c>
+      <c r="G6" s="41">
+        <v>22966</v>
+      </c>
+      <c r="H6" s="41">
+        <v>18586.901273472798</v>
+      </c>
+      <c r="I6" s="41">
+        <f>D6-H6</f>
+        <v>935.48872652720092</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" ref="J6:J7" si="1">(I6/$I$4)-1</f>
+        <v>0.17595137033051711</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="45">
+        <v>19457.060000000001</v>
+      </c>
+      <c r="D7" s="45">
+        <v>19482.02</v>
+      </c>
+      <c r="E7" s="45">
+        <v>107445.24</v>
+      </c>
+      <c r="F7" s="45">
+        <v>107514.37</v>
+      </c>
+      <c r="G7" s="45">
+        <v>13292</v>
+      </c>
+      <c r="H7" s="46">
+        <f>Veredas!AA19</f>
+        <v>18457.493471999998</v>
+      </c>
+      <c r="I7" s="46">
+        <f t="shared" si="0"/>
+        <v>1024.5265280000021</v>
+      </c>
+      <c r="J7" s="51">
+        <f t="shared" si="1"/>
+        <v>0.2878758881617991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>